--- a/testExcel_json/excel/st_test.xlsx
+++ b/testExcel_json/excel/st_test.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="st_test" sheetId="1" r:id="rId1"/>
-    <sheet name="st222" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梅西进了几个球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,18 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isImage2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isImage3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isImage4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1第三方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,15 +104,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4但是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
+    <t>3永远的中国人永远的中国人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅西进了1个球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅西进了2个球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅西进了3个球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅西进了4个球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -504,120 +499,90 @@
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -625,403 +590,118 @@
       <c r="D4" s="1">
         <v>666</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1">
-        <v>666</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testExcel_json/excel/st_test.xlsx
+++ b/testExcel_json/excel/st_test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="st_test" sheetId="1" r:id="rId1"/>
+    <sheet name="st_ball" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +126,98 @@
   </si>
   <si>
     <t>梅西进了4个球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球前半段速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球后半段速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球速度根据时间来变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击球 特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect等分有暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc 失败动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替快速点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间眼神动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多游戏icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闯关模式按钮UI,界面UI布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed1变化范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -708,4 +801,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>